--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\CS372-AssignmentOrganizer\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E36073E-D57F-402C-82AE-C38F7716CF98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C64A42-FB51-45B9-BB29-1A00169A9643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4644" yWindow="3156" windowWidth="23040" windowHeight="11868" xr2:uid="{E8A9AF7F-5AC9-4F24-BE78-E46CAFF50397}"/>
+    <workbookView xWindow="4656" yWindow="3168" windowWidth="23040" windowHeight="11868" xr2:uid="{E8A9AF7F-5AC9-4F24-BE78-E46CAFF50397}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHUBHAM\Downloads\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University stuff\AssignmentOrganizer\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF020662-EA2D-4FB6-81A6-3D1217C84F07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA843C-9C69-4872-BDF0-7201EDA59268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="2016" windowWidth="23040" windowHeight="14076" xr2:uid="{E8A9AF7F-5AC9-4F24-BE78-E46CAFF50397}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8A9AF7F-5AC9-4F24-BE78-E46CAFF50397}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
   <si>
     <t>Test Case#</t>
   </si>
@@ -761,17 +761,17 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.77734375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -800,7 +800,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -819,13 +819,15 @@
       <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="15"/>
+      <c r="G2" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H2" s="15"/>
       <c r="I2" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -844,13 +846,15 @@
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H3" s="17"/>
       <c r="I3" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -869,13 +873,15 @@
       <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="15"/>
       <c r="I4" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -900,7 +906,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -919,13 +925,15 @@
       <c r="F6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -944,13 +952,15 @@
       <c r="F7" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -969,13 +979,15 @@
       <c r="F8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="I8" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -994,13 +1006,15 @@
       <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1019,13 +1033,15 @@
       <c r="F10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H10" s="15"/>
       <c r="I10" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -1044,13 +1060,15 @@
       <c r="F11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H11" s="17"/>
       <c r="I11" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6" t="s">
@@ -1065,13 +1083,15 @@
       <c r="F12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H12" s="15"/>
       <c r="I12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6" t="s">
@@ -1086,13 +1106,15 @@
       <c r="F13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H13" s="17"/>
       <c r="I13" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
@@ -1107,13 +1129,15 @@
       <c r="F14" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H14" s="17"/>
       <c r="I14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
@@ -1128,7 +1152,9 @@
       <c r="F15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>43</v>
+      </c>
       <c r="H15" s="15"/>
       <c r="I15" s="2" t="s">
         <v>43</v>
@@ -1146,7 +1172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1158,7 +1184,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1170,7 +1196,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University stuff\AssignmentOrganizer\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\2020 3Fall\CS 372\CS372_Repo\AssignmentOrganizer\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAA843C-9C69-4872-BDF0-7201EDA59268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EDE438-68D0-445F-BCE5-677E4D3CA97B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E8A9AF7F-5AC9-4F24-BE78-E46CAFF50397}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{E8A9AF7F-5AC9-4F24-BE78-E46CAFF50397}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -18,25 +18,17 @@
     <sheet name="CoursesPage" sheetId="3" r:id="rId3"/>
     <sheet name="AssignmentsPage" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="148">
   <si>
     <t>Test Case#</t>
   </si>
@@ -44,6 +36,9 @@
     <t>Test Case Description</t>
   </si>
   <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
     <t>Test Data</t>
   </si>
   <si>
@@ -53,18 +48,48 @@
     <t>Actual Result</t>
   </si>
   <si>
+    <t>Windows OS</t>
+  </si>
+  <si>
+    <t>Linux OS</t>
+  </si>
+  <si>
+    <t>MacOS</t>
+  </si>
+  <si>
+    <t>Default App Window Size</t>
+  </si>
+  <si>
+    <t>Checking the default window size for the app</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>The app window size should be maximized (full screen) when the app launches.</t>
+  </si>
+  <si>
+    <t>The app window size is maximized (full screen) when the app launches.</t>
+  </si>
+  <si>
+    <t>Works</t>
+  </si>
+  <si>
     <t>Check Semester Count</t>
   </si>
   <si>
+    <t>Verify the semester count by going to Semesters Page or semesters.json to find the number of existing semesters.</t>
+  </si>
+  <si>
+    <t>Semester Count on homepage should match the Semester count in Semesters.json and semesters page.</t>
+  </si>
+  <si>
     <t>Semester Count on homepage matches the Semester count in Semesters.json and Semester page.</t>
   </si>
   <si>
     <t>Check Course Count</t>
   </si>
   <si>
-    <t>Verify the semester count by going to Semesters Page or semesters.json to find the number of existing semesters.</t>
-  </si>
-  <si>
     <t>Verify the course count by going to Courses Page or courses.json to find the number of existing courses.</t>
   </si>
   <si>
@@ -74,48 +99,84 @@
     <t>Course Count on homepage matches the course count in courses.json and courses page.</t>
   </si>
   <si>
+    <t>Check Assignment Count</t>
+  </si>
+  <si>
     <t>Verify the assignment count by going to Assignments Page or assignments.json to find the number of existing assignments.</t>
   </si>
   <si>
     <t>Assignment Count on homepage should match the assignment count in assignments.json and assignments page.</t>
   </si>
   <si>
-    <t>Semester Count on homepage should match the Semester count in Semesters.json and semesters page.</t>
-  </si>
-  <si>
     <t>Assignment Count on homepage matches the assignment count in assignments.json and assignments page.</t>
   </si>
   <si>
-    <t>Default App Window Size</t>
-  </si>
-  <si>
-    <t>The app window size should be maximized (full screen) when the app launches.</t>
-  </si>
-  <si>
-    <t>Checking the default window size for the app</t>
-  </si>
-  <si>
-    <t>The app window size is maximized (full screen) when the app launches.</t>
+    <t>Open Semester Page</t>
+  </si>
+  <si>
+    <t>Click on Semesters Card</t>
+  </si>
+  <si>
+    <t>Should redirect to Semester Page</t>
+  </si>
+  <si>
+    <t>It redirects to Semester Page</t>
+  </si>
+  <si>
+    <t>Open Course Page</t>
+  </si>
+  <si>
+    <t>Click on Courses Card</t>
+  </si>
+  <si>
+    <t>Should redirect to Course Page</t>
+  </si>
+  <si>
+    <t>It redirects to Course Page</t>
+  </si>
+  <si>
+    <t>Open Assignment Page</t>
+  </si>
+  <si>
+    <t>Click on Assignments Card</t>
+  </si>
+  <si>
+    <t>Should redirect to Assignment Page</t>
+  </si>
+  <si>
+    <t>It redirects to Assignment Page</t>
+  </si>
+  <si>
+    <t>Open Settings Page</t>
+  </si>
+  <si>
+    <t>Click on Settings Card</t>
+  </si>
+  <si>
+    <t>Should redirect to Settings Page</t>
+  </si>
+  <si>
+    <t>It redirects to Settings Page</t>
+  </si>
+  <si>
+    <t>Checking Exit functionality in the app File Menu</t>
   </si>
   <si>
     <t>Pressing the exit button in the File menu of the app</t>
   </si>
   <si>
+    <t>The app should close/exit when the exit button is pressed.</t>
+  </si>
+  <si>
     <t>The app closes when the exit button is pressed.</t>
   </si>
   <si>
-    <t>The app should close/exit when the exit button is pressed.</t>
-  </si>
-  <si>
-    <t>Checking Exit functionality in the app File Menu</t>
+    <t>Checking the functionality for Go menu in the app</t>
   </si>
   <si>
     <t>Clicking on Home under the Go menu</t>
   </si>
   <si>
-    <t>Checking the functionality for Go menu in the app</t>
-  </si>
-  <si>
     <t>It should redirect to Home page when this button is pressed from anywhere within the app.</t>
   </si>
   <si>
@@ -125,113 +186,308 @@
     <t>Clicking on Semester under the Go menu</t>
   </si>
   <si>
+    <t>It should redirect to Semester page when this button is pressed from anywhere within the app.</t>
+  </si>
+  <si>
+    <t>It redirects to the Semester page when this button is pressed from anywhere within the app.</t>
+  </si>
+  <si>
     <t>Clicking on Course under the Go menu</t>
   </si>
   <si>
+    <t>It should redirect to Course page when this button is pressed from anywhere within the app.</t>
+  </si>
+  <si>
+    <t>It redirects to the Course page when this button is pressed from anywhere within the app.</t>
+  </si>
+  <si>
     <t>Clicking on Assignment under the Go menu</t>
   </si>
   <si>
+    <t>It should redirect to Assignment page when this button is pressed from anywhere within the app.</t>
+  </si>
+  <si>
+    <t>It redirects to the Assignment page when this button is pressed from anywhere within the app.</t>
+  </si>
+  <si>
     <t>Clicking on Settings under the Go menu</t>
   </si>
   <si>
-    <t>It should redirect to Semester page when this button is pressed from anywhere within the app.</t>
-  </si>
-  <si>
-    <t>It redirects to the Semester page when this button is pressed from anywhere within the app.</t>
-  </si>
-  <si>
-    <t>It should redirect to Course page when this button is pressed from anywhere within the app.</t>
-  </si>
-  <si>
-    <t>It redirects to the Course page when this button is pressed from anywhere within the app.</t>
-  </si>
-  <si>
-    <t>It should redirect to Assignment page when this button is pressed from anywhere within the app.</t>
-  </si>
-  <si>
-    <t>It redirects to the Assignment page when this button is pressed from anywhere within the app.</t>
-  </si>
-  <si>
     <t>It should redirect to Settings page when this button is pressed from anywhere within the app.</t>
   </si>
   <si>
     <t>It redirects to the Settings page when this button is pressed from anywhere within the app.</t>
   </si>
   <si>
-    <t>Windows OS</t>
-  </si>
-  <si>
-    <t>Linux OS</t>
-  </si>
-  <si>
-    <t>MacOS</t>
-  </si>
-  <si>
-    <t>Works</t>
-  </si>
-  <si>
-    <t>Check Assignment Count</t>
-  </si>
-  <si>
-    <t>Open Semester Page</t>
-  </si>
-  <si>
-    <t>Open Course Page</t>
-  </si>
-  <si>
-    <t>Open Assignment Page</t>
-  </si>
-  <si>
-    <t>Open Settings Page</t>
-  </si>
-  <si>
-    <t>Click on Settings Card</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Click on Courses Card</t>
-  </si>
-  <si>
-    <t>Click on Semesters Card</t>
-  </si>
-  <si>
-    <t>Click on Assignments Card</t>
-  </si>
-  <si>
-    <t>Should redirect to Semester Page</t>
-  </si>
-  <si>
-    <t>Should redirect to Course Page</t>
-  </si>
-  <si>
-    <t>Should redirect to Assignment Page</t>
-  </si>
-  <si>
-    <t>Should redirect to Settings Page</t>
-  </si>
-  <si>
-    <t>It redirects to Semester Page</t>
-  </si>
-  <si>
-    <t>It redirects to Course Page</t>
-  </si>
-  <si>
-    <t>It redirects to Assignment Page</t>
-  </si>
-  <si>
-    <t>It redirects to Settings Page</t>
+    <t>Adding</t>
+  </si>
+  <si>
+    <t>Adding  semesters with viable years</t>
+  </si>
+  <si>
+    <t>Select a term and enter a viable year</t>
+  </si>
+  <si>
+    <t>1. Fall 2020 
+2. Winter 2020        3. Winter 2019
+4.Spring 2019
+5.Summer 2018</t>
+  </si>
+  <si>
+    <t>It should display a comfirmation dialog box, add semester year if not already existing, entered semesters in the existing semesters year.</t>
+  </si>
+  <si>
+    <t>It displays the the confirmation dialog box, added year if not already an existing year and added semeter to year already existing semester list</t>
+  </si>
+  <si>
+    <t>Adding duplicate semesters</t>
+  </si>
+  <si>
+    <t>Select the terms and enter years of those semesters that you see in existing semesters</t>
+  </si>
+  <si>
+    <t>1. Fall 2020 
+2. Winter 2020
+3.Spring 2019
+4.Summer 2018</t>
+  </si>
+  <si>
+    <t>It should not make any changes and only disply an error message, telling the user that the semester exists.</t>
+  </si>
+  <si>
+    <t>It does not make any changes and displays the error message.</t>
+  </si>
+  <si>
+    <t>Adding semester using non-viable term</t>
+  </si>
+  <si>
+    <t>Leave term unchanged and enter a viable year</t>
+  </si>
+  <si>
+    <t>It should not make any changes and only disply an error message, telling the user that they must select season/term</t>
+  </si>
+  <si>
+    <t>Adding semesters using non-viable years</t>
+  </si>
+  <si>
+    <t>Select a term and enter non-viable year.</t>
+  </si>
+  <si>
+    <t>1.Fall 1996,199
+2.Winter 2022,20
+3.Spring 1999,1
+4.Summer 2025    5. Winter 20AB,        ABCD</t>
+  </si>
+  <si>
+    <t>It should not make any changes and only dispaly an error message, telling the user what years are viable.</t>
+  </si>
+  <si>
+    <t>Adding semester without entering a year</t>
+  </si>
+  <si>
+    <t>Select a term and click add</t>
+  </si>
+  <si>
+    <t>All terms</t>
+  </si>
+  <si>
+    <t>It displays an error message, telling the user what years are viable.</t>
+  </si>
+  <si>
+    <t>The app displays the error message</t>
+  </si>
+  <si>
+    <t>Adding a year more than 4 charcters long</t>
+  </si>
+  <si>
+    <t>Try tying a year more than 4 checters long</t>
+  </si>
+  <si>
+    <t>1. 20201                  2. ABCDE</t>
+  </si>
+  <si>
+    <t>It should not allow you to type more than 4 characters in the year field</t>
+  </si>
+  <si>
+    <t>The app did not allow to type more than 4 charcters</t>
+  </si>
+  <si>
+    <t>Trying to add blank fields</t>
+  </si>
+  <si>
+    <t>Click add</t>
+  </si>
+  <si>
+    <t>It displays an error message, instructing user to select a seanson/term and add a year.</t>
+  </si>
+  <si>
+    <t>The app displays the error message, inform  user to select season/term. Should include year as well.</t>
+  </si>
+  <si>
+    <t>Partially works</t>
+  </si>
+  <si>
+    <t>Editing</t>
+  </si>
+  <si>
+    <t>Edit semester with valid data entery</t>
+  </si>
+  <si>
+    <t>1.Winter 2019 to Winter 2018          2. Spring 2019 to fall 2019                 3. Summer2019 to Winter 2017</t>
+  </si>
+  <si>
+    <t>Edit semester using existing semester term and year</t>
+  </si>
+  <si>
+    <t>Click the edit button update term and/or year matching already existing semester. Or no change at all. click update.</t>
+  </si>
+  <si>
+    <t>1. Winter 2020 to Winter 2020         2. Winter 2020 to Fall 2020               3.Fall 2020 to  Fall 2019                     4. Fall 2020 to Winter 2018</t>
+  </si>
+  <si>
+    <t>The app prompted user for permission, clicked yes app diaplyed error dialog box. No changes were made. No changes were made, user was still able to edit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit Semester using invalid  term. </t>
+  </si>
+  <si>
+    <t>Click edit Button and update term with invalid entry. click update.</t>
+  </si>
+  <si>
+    <t>Edit semester with invalid year.</t>
+  </si>
+  <si>
+    <t>Click the edit button update year with invalid entry.</t>
+  </si>
+  <si>
+    <t>All semesters</t>
+  </si>
+  <si>
+    <t>Edit semester using invalid  term and year entries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click the edit button update the term and year with invalid entried.  </t>
+  </si>
+  <si>
+    <t>Edit semester year with only one semeter.</t>
+  </si>
+  <si>
+    <t>Drop down a year containing one semester and edit it's year and click update.</t>
+  </si>
+  <si>
+    <t>1. Fall 2019 to Fall 2018</t>
+  </si>
+  <si>
+    <t>It should display a confirmation dialog box for user permission (yes/no) before making changes. Clicking yes it should display a confirmation dialog box letting user know semester was successfuly updated. Semester should be saved under the updated year. And the year edited should be removed from the list of exsiting semester year.</t>
+  </si>
+  <si>
+    <t>Clicking no after clicking on update.</t>
+  </si>
+  <si>
+    <t>Click the edit button to edit a semeter then click on update, then no.</t>
+  </si>
+  <si>
+    <t>1. Winter 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should take user back to the edit page and make no changes. </t>
+  </si>
+  <si>
+    <t>Took user back to the update page and made no changes.</t>
+  </si>
+  <si>
+    <t>Clicking cancel under the edit field with or with or witout changes</t>
+  </si>
+  <si>
+    <t>Click the dit button, try editing and not edit the semester field and click on cancel.</t>
+  </si>
+  <si>
+    <t>1. Winter 2017        2.Winter 2017 to Winter 2016</t>
+  </si>
+  <si>
+    <t>It should take user back to the add semeter field and make no changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Took user back to the add semester field and made no changes. </t>
+  </si>
+  <si>
+    <t>Deleting</t>
+  </si>
+  <si>
+    <t>Delete semesters in exisitng semesters year with multiple semesters</t>
+  </si>
+  <si>
+    <t>1. Winter 2020      2.Fall 2018</t>
+  </si>
+  <si>
+    <t>It asks for confirmation and the semester is deleted. A message is shown confirming deletion. Semster was removed from below the existing semester year</t>
+  </si>
+  <si>
+    <t>It does as expected. The confirmation message is flashed momentarily before fading.</t>
+  </si>
+  <si>
+    <t>Deleting semster in existing semesters year with only one semster.</t>
+  </si>
+  <si>
+    <t>Winter 2017</t>
+  </si>
+  <si>
+    <t>It asks for confirmation and the semester is deleted. A message is shown confirming deletion. Year should be removed from existing semester.</t>
+  </si>
+  <si>
+    <t>It does as expected. The confirmation message is flashed momentarily before fading. Year was also removed from existing semester list.</t>
+  </si>
+  <si>
+    <t>Click the edit button and modify semester term and/or year. click update.</t>
+  </si>
+  <si>
+    <t>Click the delete icon</t>
+  </si>
+  <si>
+    <t>It should display a confirmation dialog box for user permission (yes/no) before making changes. Clicking yes it should display a an error dialog box letting user knwo semester already exist. No changes should be made. User should still be able to edit.</t>
+  </si>
+  <si>
+    <t>It should display a confirmation dialog box for user permission (yes/no) before making changes. Clicking yes it should display error dialog box telling user to select season/term. No changes should be made. User should still be able to edit.</t>
+  </si>
+  <si>
+    <t>It should display a confirmation dialog box for user permission (yes/no) before making changes. Clicking yes it should display error dialog box telling user what year are valid entry. No changes should be made. User should still be able to edit.</t>
+  </si>
+  <si>
+    <t>It should display a confirmation dialog box for user permission (yes/no) before making changes. Clicking yes, it should display error dialog box telling user what term and year are valid entries. No changes should be made. User should still be able to edit.</t>
+  </si>
+  <si>
+    <t>Select Term and enter 2020</t>
+  </si>
+  <si>
+    <t>It should display a confirmation dialog box for user permission (yes/no) before making changes. Clicking yes, it should display a confirmation dialog box letting user know semester was successfuly updated. Semester should be updated with current information and displayed under the correct year or semester.</t>
+  </si>
+  <si>
+    <t>It prompted user for permission. Clicking yes, the app confirmed that the semester was successfully updated. Added semester with updated information under the correct field.</t>
+  </si>
+  <si>
+    <t>It prompted user for permission. Clicking yes, the app displayed error dialog box.  No changes were made, user was still able to edit.</t>
+  </si>
+  <si>
+    <t>It prompted user for permission. Clicking yes, the app displayed error dialog box. No changes were made, user was still able to edit.</t>
+  </si>
+  <si>
+    <t>It prompted user for permission. Clicking yes, the app displayed error dialog box. Was only asking for term and not year. No changes were made, user was still able to edit.</t>
+  </si>
+  <si>
+    <t>Promted user for permission, confirmed semester was successfully updated. Added semester under the new year and removed edited year.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Re-adding deleted semesters </t>
+  </si>
+  <si>
+    <t>It displays the confirmation dialog box and adds the semester to existing semesters. This confirms proprer deletion of the semester.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +503,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +525,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -384,11 +666,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -440,6 +757,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -757,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB585F97-6C77-4717-A37E-33269E5DB975}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,25 +1138,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,26 +1164,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -832,26 +1191,26 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -859,26 +1218,26 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H4" s="15"/>
       <c r="I4" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -886,24 +1245,24 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="17"/>
       <c r="I5" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -911,26 +1270,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -938,26 +1297,26 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H7" s="17"/>
       <c r="I7" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -965,26 +1324,26 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,26 +1351,26 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H9" s="17"/>
       <c r="I9" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -1019,26 +1378,26 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -1046,118 +1405,118 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H11" s="17"/>
       <c r="I11" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="6" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="6" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H14" s="17"/>
       <c r="I14" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="2" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1168,12 +1527,737 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9381720-3E95-49AA-9890-671A6D04A327}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="28"/>
+    </row>
+    <row r="3" spans="1:12" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="20">
+        <v>1</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="L3"/>
+    </row>
+    <row r="4" spans="1:12" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20">
+        <v>2</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="20">
+        <v>3</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" s="18" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="20">
+        <v>4</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="20">
+        <v>5</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="20">
+        <v>6</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
+        <v>7</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="20">
+        <v>8</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" s="18" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="20">
+        <v>9</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="20">
+        <v>10</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A14" s="20">
+        <v>11</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" s="18" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>12</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" s="18" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="20">
+        <v>13</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+    </row>
+    <row r="17" spans="1:9" s="18" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="20">
+        <v>14</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+    </row>
+    <row r="18" spans="1:9" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>15</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+    </row>
+    <row r="19" spans="1:9" s="18" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" s="18" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
+        <v>16</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+    </row>
+    <row r="21" spans="1:9" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>17</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+    </row>
+    <row r="22" spans="1:9" s="18" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A22" s="20">
+        <v>18</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+    </row>
+    <row r="23" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+    </row>
+    <row r="24" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+    </row>
+    <row r="25" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+    </row>
+    <row r="26" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+    </row>
+    <row r="27" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="29"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+    </row>
+    <row r="30" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A19:I19"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1200,4 +2284,207 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C39443884A93AC4288025566ACBEDC04" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09db1439c13fea15c4b073f8145b668d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcc1e875-6396-4c7a-abb6-a5f631e4ec10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e59e1d6e6415753d6d52256061396b9c" ns3:_="">
+    <xsd:import namespace="dcc1e875-6396-4c7a-abb6-a5f631e4ec10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="dcc1e875-6396-4c7a-abb6-a5f631e4ec10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1466FD4-D063-4F72-96C2-762D063A7051}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="dcc1e875-6396-4c7a-abb6-a5f631e4ec10"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5C0AF795-75F8-4DF0-B47D-DF453830802B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dcc1e875-6396-4c7a-abb6-a5f631e4ec10"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DAB9CD3-C2C1-49ED-B183-8472C4A927BC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23505"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uregina-my.sharepoint.com/personal/sfz421_uregina_ca/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University stuff\AssignmentOrganizer\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{895B2A64-2E8B-4EBB-8ACB-FAE527D8706A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1639DA9-9DB3-4D41-B554-43E4432EB8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CoursesPage" sheetId="3" r:id="rId3"/>
     <sheet name="AssignmentsPage" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" iterateDelta="1E-4" calcCompleted="0"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="253">
   <si>
     <t>Test Case#</t>
   </si>
@@ -577,9 +577,6 @@
   </si>
   <si>
     <t>Results should show up as soon as letter is typed in.</t>
-  </si>
-  <si>
-    <t>Select semster from the drop down.</t>
   </si>
   <si>
     <t>Enter a semester in the database.</t>
@@ -769,12 +766,74 @@
   <si>
     <t xml:space="preserve">It gets deleted. A pop up confirms the deletion to the user and it's deleted in the Json file. </t>
   </si>
+  <si>
+    <t>Select semester from the drop down.</t>
+  </si>
+  <si>
+    <t>Adding an existing course code with different character cases.</t>
+  </si>
+  <si>
+    <t>1.Choose a semester.
+2.Enter a course code different letter cases
+3.Existing course name same letter cases</t>
+  </si>
+  <si>
+    <t>A dialogue shouls appear telling user course code already exist.</t>
+  </si>
+  <si>
+    <t>Adds the course to the semester</t>
+  </si>
+  <si>
+    <t>Dose not work</t>
+  </si>
+  <si>
+    <t>Adding an existing course to a semester with matching cases</t>
+  </si>
+  <si>
+    <t>Semester: Fall 2019, Course Code: cs-200, Course Name: Intro to DBMS.</t>
+  </si>
+  <si>
+    <t>Semester: Fall 2019, Course Code: CS-200, Course Name: Intro to DBMS.</t>
+  </si>
+  <si>
+    <t>A dialogue shouls appear telling user course already exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A warning dialogue box appeared. </t>
+  </si>
+  <si>
+    <t>Adding an existing course name with different character cases.</t>
+  </si>
+  <si>
+    <t>1.Choose a semester.
+2.Existing course code
+3.Existing course name differnt letter cases</t>
+  </si>
+  <si>
+    <t>Semester: Fall 2019, Course Code: CS-200, Course Name: intro to dbms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a valid course spelling existing semester name in lower case or a different case sequence </t>
+  </si>
+  <si>
+    <t>1. Type semester term and year                   2.Enter a course code
+3.Enter a course name</t>
+  </si>
+  <si>
+    <t>1. fall 2019:MATH-100: Intro to Calculus                                                    2.fALL 2019:ENGL-100:Critical Read and Writing1</t>
+  </si>
+  <si>
+    <t>Result to appear in existing course list</t>
+  </si>
+  <si>
+    <t>A warning dialogue popped up saying semesters dose not exist</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1000,7 +1059,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1093,6 +1152,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1500,7 +1562,7 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
@@ -1510,7 +1572,7 @@
     <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1539,7 +1601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.9" customHeight="1">
+    <row r="2" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1568,7 +1630,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75">
+    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1597,7 +1659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1626,7 +1688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90">
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1651,7 +1713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1680,7 +1742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1709,7 +1771,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1738,7 +1800,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1767,7 +1829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45">
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1796,7 +1858,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.9" customHeight="1">
+    <row r="11" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1825,7 +1887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.9" customHeight="1">
+    <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="13" t="s">
@@ -1850,7 +1912,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.9" customHeight="1">
+    <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="9"/>
       <c r="C13" s="13" t="s">
@@ -1875,7 +1937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.9" customHeight="1">
+    <row r="14" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13" t="s">
@@ -1900,7 +1962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.9" customHeight="1">
+    <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="15" t="s">
@@ -1939,7 +2001,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -1951,7 +2013,7 @@
     <col min="9" max="9" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1980,20 +2042,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" s="21" customFormat="1" ht="90">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -2020,7 +2082,7 @@
       </c>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="21" customFormat="1" ht="75">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -2047,7 +2109,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" ht="60">
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -2074,7 +2136,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="105">
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -2101,7 +2163,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="45">
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -2128,7 +2190,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="45">
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -2155,7 +2217,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" ht="75">
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -2182,7 +2244,7 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="60">
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -2207,7 +2269,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="45">
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -2232,20 +2294,20 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="21" customHeight="1">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="150">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -2272,7 +2334,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="135">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -2299,7 +2361,7 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="120">
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -2326,7 +2388,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="120">
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -2353,7 +2415,7 @@
       </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" s="21" customFormat="1" ht="120">
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="28">
         <v>14</v>
       </c>
@@ -2380,7 +2442,7 @@
       </c>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" s="21" customFormat="1" ht="165">
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -2407,7 +2469,7 @@
       </c>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" s="21" customFormat="1" ht="60">
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -2434,7 +2496,7 @@
       </c>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" ht="75">
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -2461,22 +2523,22 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" s="21" customFormat="1" ht="19.7" customHeight="1">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:9" s="21" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" s="21" customFormat="1" ht="75">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -2503,7 +2565,7 @@
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" s="21" customFormat="1" ht="30">
+    <row r="23" spans="1:9" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -2528,7 +2590,7 @@
       </c>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" s="21" customFormat="1" ht="90">
+    <row r="24" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -2555,7 +2617,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" s="21" customFormat="1" ht="90">
+    <row r="25" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -2582,7 +2644,7 @@
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" s="21" customFormat="1">
+    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2593,7 +2655,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:9" s="21" customFormat="1">
+    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2604,7 +2666,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" s="21" customFormat="1">
+    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2615,7 +2677,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="21" customFormat="1">
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2626,7 +2688,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2637,7 +2699,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1">
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2648,7 +2710,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="21" customFormat="1">
+    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2659,7 +2721,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="21" customFormat="1">
+    <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2670,7 +2732,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="21" customFormat="1">
+    <row r="34" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2681,7 +2743,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="21" customFormat="1">
+    <row r="35" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2692,7 +2754,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="21" customFormat="1">
+    <row r="36" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2703,7 +2765,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="21" customFormat="1">
+    <row r="37" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2714,7 +2776,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="21" customFormat="1">
+    <row r="38" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2725,7 +2787,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="21" customFormat="1">
+    <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2736,7 +2798,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2747,7 +2809,7 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2758,7 +2820,7 @@
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2782,13 +2844,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
@@ -2802,7 +2864,7 @@
     <col min="10" max="10" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2834,7 +2896,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="90">
+    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -2865,7 +2927,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" ht="45">
+    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -2891,7 +2953,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:16" ht="45">
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -2917,19 +2979,19 @@
       <c r="I4" s="27"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:16" ht="60">
+    <row r="5" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
       <c r="B5" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>180</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>101</v>
@@ -2941,21 +3003,21 @@
       <c r="I5" s="27"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:16" ht="45">
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="26">
         <v>4</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>183</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>101</v>
@@ -2967,24 +3029,24 @@
       <c r="I6" s="27"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:16" ht="75">
+    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="28">
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>187</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>188</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>96</v>
@@ -2992,27 +3054,27 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="75">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="26">
         <v>6</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>14</v>
@@ -3021,24 +3083,24 @@
       <c r="I8" s="27"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:16" ht="90">
+    <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="28">
         <v>7</v>
       </c>
       <c r="B9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="F9" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>96</v>
@@ -3046,117 +3108,129 @@
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="60">
-      <c r="A10" s="26">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="28">
         <v>8</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="27"/>
+        <v>249</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>250</v>
+      </c>
       <c r="E10" s="27" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:16" ht="120">
-      <c r="A12" s="26">
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="28">
         <v>9</v>
       </c>
+      <c r="B11" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="28">
+        <v>10</v>
+      </c>
       <c r="B12" s="27" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:16" ht="120">
-      <c r="A13" s="26">
-        <v>10</v>
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="28">
+        <v>11</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:16" ht="120">
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>14</v>
@@ -3165,47 +3239,35 @@
       <c r="I14" s="27"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="90">
-      <c r="A15" s="26">
-        <v>12</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:16" ht="90">
+    <row r="16" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="26">
         <v>13</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>101</v>
@@ -3217,24 +3279,24 @@
       <c r="I16" s="27"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" ht="90">
+    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="26">
         <v>14</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>14</v>
@@ -3243,24 +3305,24 @@
       <c r="I17" s="27"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="60">
+    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="26">
         <v>15</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>14</v>
@@ -3269,38 +3331,50 @@
       <c r="I18" s="27"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" ht="90">
+    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A19" s="26">
+        <v>16</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>14</v>
@@ -3309,65 +3383,101 @@
       <c r="I20" s="27"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="30">
-        <v>17</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="26">
+        <v>18</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="30">
-        <v>18</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="26">
+        <v>19</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="30">
-        <v>19</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="30">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="26">
         <v>20</v>
       </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+      <c r="B24" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -3379,10 +3489,66 @@
       <c r="I25" s="27"/>
       <c r="J25" s="30"/>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>18</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>19</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>20</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>21</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3397,9 +3563,9 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="60">
+    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3438,6 +3604,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C39443884A93AC4288025566ACBEDC04" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09db1439c13fea15c4b073f8145b668d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcc1e875-6396-4c7a-abb6-a5f631e4ec10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e59e1d6e6415753d6d52256061396b9c" ns3:_="">
     <xsd:import namespace="dcc1e875-6396-4c7a-abb6-a5f631e4ec10"/>
@@ -3583,29 +3764,37 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBA5D94B-3A63-40A0-B06E-DB465E339872}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D953D7D-21BA-4E19-B5C7-89EF6D73758B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44003BB-794C-4304-B3AC-C854D3CC3F88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44003BB-794C-4304-B3AC-C854D3CC3F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D953D7D-21BA-4E19-B5C7-89EF6D73758B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBA5D94B-3A63-40A0-B06E-DB465E339872}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="dcc1e875-6396-4c7a-abb6-a5f631e4ec10"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University stuff\AssignmentOrganizer\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\CS372-AssignmentOrganizer\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1639DA9-9DB3-4D41-B554-43E4432EB8D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1753BEBB-82D3-4D2B-A073-21ED67226BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -1562,17 +1561,17 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1601,7 +1600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1659,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1688,7 +1687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1713,7 +1712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1742,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1771,7 +1770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1800,7 +1799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1829,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1858,7 +1857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="13" t="s">
@@ -1912,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="9"/>
       <c r="C13" s="13" t="s">
@@ -1937,7 +1936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13" t="s">
@@ -1962,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="15" t="s">
@@ -2001,19 +2000,19 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
         <v>63</v>
       </c>
@@ -2055,7 +2054,7 @@
       <c r="H2" s="33"/>
       <c r="I2" s="33"/>
     </row>
-    <row r="3" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -2082,7 +2081,7 @@
       </c>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -2109,7 +2108,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -2136,7 +2135,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -2163,7 +2162,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -2190,7 +2189,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -2217,7 +2216,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -2244,7 +2243,7 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -2269,7 +2268,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>107</v>
       </c>
@@ -2307,7 +2306,7 @@
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
     </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -2334,7 +2333,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -2361,7 +2360,7 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -2388,7 +2387,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -2415,7 +2414,7 @@
       </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>14</v>
       </c>
@@ -2442,7 +2441,7 @@
       </c>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" s="21" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -2469,7 +2468,7 @@
       </c>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -2496,7 +2495,7 @@
       </c>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -2523,7 +2522,7 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" s="21" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" s="21" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
         <v>146</v>
       </c>
@@ -2538,7 +2537,7 @@
       </c>
       <c r="I21" s="34"/>
     </row>
-    <row r="22" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -2565,7 +2564,7 @@
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -2590,7 +2589,7 @@
       </c>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -2617,7 +2616,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -2644,7 +2643,7 @@
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2655,7 +2654,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2666,7 +2665,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2677,7 +2676,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2688,7 +2687,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2699,7 +2698,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2710,7 +2709,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2721,7 +2720,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2732,7 +2731,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2743,7 +2742,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2754,7 +2753,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2765,7 +2764,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2776,7 +2775,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2787,7 +2786,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2798,7 +2797,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2809,7 +2808,7 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2820,7 +2819,7 @@
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2846,25 +2845,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -2927,7 +2926,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -2953,7 +2952,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -2979,8 +2978,10 @@
       <c r="I4" s="27"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="26"/>
+    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
+        <v>4</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>234</v>
       </c>
@@ -3003,9 +3004,9 @@
       <c r="I5" s="27"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
         <v>180</v>
@@ -3029,9 +3030,9 @@
       <c r="I6" s="27"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
-        <v>5</v>
+    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>184</v>
@@ -3057,9 +3058,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>189</v>
@@ -3083,9 +3084,9 @@
       <c r="I8" s="27"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
-        <v>7</v>
+    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
         <v>194</v>
@@ -3111,9 +3112,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28">
-        <v>8</v>
+    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
         <v>248</v>
@@ -3137,9 +3138,9 @@
       <c r="I10" s="27"/>
       <c r="J10" s="32"/>
     </row>
-    <row r="11" spans="1:16" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="28">
-        <v>9</v>
+    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <v>10</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>240</v>
@@ -3163,9 +3164,9 @@
       <c r="I11" s="27"/>
       <c r="J11" s="32"/>
     </row>
-    <row r="12" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="28">
-        <v>10</v>
+    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
+        <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>235</v>
@@ -3189,9 +3190,9 @@
       <c r="I12" s="27"/>
       <c r="J12" s="32"/>
     </row>
-    <row r="13" spans="1:16" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
-        <v>11</v>
+    <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="26">
+        <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
         <v>245</v>
@@ -3215,9 +3216,9 @@
       <c r="I13" s="27"/>
       <c r="J13" s="32"/>
     </row>
-    <row r="14" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
         <v>200</v>
@@ -3239,7 +3240,7 @@
       <c r="I14" s="27"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
         <v>107</v>
       </c>
@@ -3253,9 +3254,9 @@
       <c r="I15" s="35"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>204</v>
@@ -3279,9 +3280,9 @@
       <c r="I16" s="27"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="27" t="s">
         <v>208</v>
@@ -3305,9 +3306,9 @@
       <c r="I17" s="27"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="27" t="s">
         <v>211</v>
@@ -3331,9 +3332,9 @@
       <c r="I18" s="27"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A19" s="26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" s="27" t="s">
         <v>214</v>
@@ -3357,9 +3358,9 @@
       <c r="I19" s="27"/>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="27" t="s">
         <v>218</v>
@@ -3383,9 +3384,9 @@
       <c r="I20" s="27"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>221</v>
@@ -3409,9 +3410,9 @@
       <c r="I21" s="27"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="27" t="s">
         <v>224</v>
@@ -3435,7 +3436,7 @@
       <c r="I22" s="27"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>229</v>
       </c>
@@ -3449,9 +3450,9 @@
       <c r="I23" s="36"/>
       <c r="J23" s="37"/>
     </row>
-    <row r="24" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="27" t="s">
         <v>230</v>
@@ -3475,9 +3476,9 @@
       <c r="I24" s="27"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -3489,9 +3490,9 @@
       <c r="I25" s="27"/>
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="30">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
@@ -3503,9 +3504,9 @@
       <c r="I26" s="27"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="30">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
@@ -3517,9 +3518,9 @@
       <c r="I27" s="27"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="30">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
@@ -3531,9 +3532,9 @@
       <c r="I28" s="27"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
@@ -3563,9 +3564,9 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3604,21 +3605,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C39443884A93AC4288025566ACBEDC04" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09db1439c13fea15c4b073f8145b668d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="dcc1e875-6396-4c7a-abb6-a5f631e4ec10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e59e1d6e6415753d6d52256061396b9c" ns3:_="">
     <xsd:import namespace="dcc1e875-6396-4c7a-abb6-a5f631e4ec10"/>
@@ -3764,24 +3750,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D953D7D-21BA-4E19-B5C7-89EF6D73758B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44003BB-794C-4304-B3AC-C854D3CC3F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBA5D94B-3A63-40A0-B06E-DB465E339872}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3797,4 +3781,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44003BB-794C-4304-B3AC-C854D3CC3F88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D953D7D-21BA-4E19-B5C7-89EF6D73758B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Test Cases/Test Cases.xlsx
+++ b/Test Cases/Test Cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Projects\CS372-AssignmentOrganizer\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9D08333-1EE8-43B9-A5C4-098A5947D53A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1753BEBB-82D3-4D2B-A073-21ED67226BC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,16 @@
     <sheet name="CoursesPage" sheetId="3" r:id="rId3"/>
     <sheet name="AssignmentsPage" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="253">
   <si>
     <t>Test Case#</t>
   </si>
@@ -568,9 +576,6 @@
   </si>
   <si>
     <t>Results should show up as soon as letter is typed in.</t>
-  </si>
-  <si>
-    <t>Select semster from the drop down.</t>
   </si>
   <si>
     <t>Enter a semester in the database.</t>
@@ -759,6 +764,68 @@
   </si>
   <si>
     <t xml:space="preserve">It gets deleted. A pop up confirms the deletion to the user and it's deleted in the Json file. </t>
+  </si>
+  <si>
+    <t>Select semester from the drop down.</t>
+  </si>
+  <si>
+    <t>Adding an existing course code with different character cases.</t>
+  </si>
+  <si>
+    <t>1.Choose a semester.
+2.Enter a course code different letter cases
+3.Existing course name same letter cases</t>
+  </si>
+  <si>
+    <t>A dialogue shouls appear telling user course code already exist.</t>
+  </si>
+  <si>
+    <t>Adds the course to the semester</t>
+  </si>
+  <si>
+    <t>Dose not work</t>
+  </si>
+  <si>
+    <t>Adding an existing course to a semester with matching cases</t>
+  </si>
+  <si>
+    <t>Semester: Fall 2019, Course Code: cs-200, Course Name: Intro to DBMS.</t>
+  </si>
+  <si>
+    <t>Semester: Fall 2019, Course Code: CS-200, Course Name: Intro to DBMS.</t>
+  </si>
+  <si>
+    <t>A dialogue shouls appear telling user course already exist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A warning dialogue box appeared. </t>
+  </si>
+  <si>
+    <t>Adding an existing course name with different character cases.</t>
+  </si>
+  <si>
+    <t>1.Choose a semester.
+2.Existing course code
+3.Existing course name differnt letter cases</t>
+  </si>
+  <si>
+    <t>Semester: Fall 2019, Course Code: CS-200, Course Name: intro to dbms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding a valid course spelling existing semester name in lower case or a different case sequence </t>
+  </si>
+  <si>
+    <t>1. Type semester term and year                   2.Enter a course code
+3.Enter a course name</t>
+  </si>
+  <si>
+    <t>1. fall 2019:MATH-100: Intro to Calculus                                                    2.fALL 2019:ENGL-100:Critical Read and Writing1</t>
+  </si>
+  <si>
+    <t>Result to appear in existing course list</t>
+  </si>
+  <si>
+    <t>A warning dialogue popped up saying semesters dose not exist</t>
   </si>
 </sst>
 </file>
@@ -991,7 +1058,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1084,6 +1151,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1491,17 +1561,17 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="3" max="4" width="24.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="38.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1559,7 +1629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -1588,7 +1658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -1617,7 +1687,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -1642,7 +1712,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -1671,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -1700,7 +1770,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -1729,7 +1799,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -1758,7 +1828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -1787,7 +1857,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1816,7 +1886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="13" t="s">
@@ -1841,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="9"/>
       <c r="C13" s="13" t="s">
@@ -1866,7 +1936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="B14" s="9"/>
       <c r="C14" s="13" t="s">
@@ -1891,7 +1961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="15" t="s">
@@ -1930,19 +2000,19 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="31.44140625" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1971,20 +2041,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-    </row>
-    <row r="3" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>1</v>
       </c>
@@ -2011,7 +2081,7 @@
       </c>
       <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="18">
         <v>2</v>
       </c>
@@ -2038,7 +2108,7 @@
       </c>
       <c r="I4" s="19"/>
     </row>
-    <row r="5" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="18">
         <v>3</v>
       </c>
@@ -2065,7 +2135,7 @@
       </c>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" s="21" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>4</v>
       </c>
@@ -2092,7 +2162,7 @@
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>5</v>
       </c>
@@ -2119,7 +2189,7 @@
       </c>
       <c r="I7" s="19"/>
     </row>
-    <row r="8" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>6</v>
       </c>
@@ -2146,7 +2216,7 @@
       </c>
       <c r="I8" s="19"/>
     </row>
-    <row r="9" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="28">
         <v>7</v>
       </c>
@@ -2173,7 +2243,7 @@
       </c>
       <c r="I9" s="19"/>
     </row>
-    <row r="10" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>8</v>
       </c>
@@ -2198,7 +2268,7 @@
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
     </row>
-    <row r="11" spans="1:9" s="21" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="21" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="28">
         <v>9</v>
       </c>
@@ -2223,20 +2293,20 @@
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
     </row>
-    <row r="12" spans="1:9" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:9" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-    </row>
-    <row r="13" spans="1:9" s="21" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>10</v>
       </c>
@@ -2263,7 +2333,7 @@
       </c>
       <c r="I13" s="19"/>
     </row>
-    <row r="14" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>11</v>
       </c>
@@ -2290,7 +2360,7 @@
       </c>
       <c r="I14" s="19"/>
     </row>
-    <row r="15" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>12</v>
       </c>
@@ -2317,7 +2387,7 @@
       </c>
       <c r="I15" s="19"/>
     </row>
-    <row r="16" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>13</v>
       </c>
@@ -2344,7 +2414,7 @@
       </c>
       <c r="I16" s="19"/>
     </row>
-    <row r="17" spans="1:9" s="21" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" s="21" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="28">
         <v>14</v>
       </c>
@@ -2371,7 +2441,7 @@
       </c>
       <c r="I17" s="19"/>
     </row>
-    <row r="18" spans="1:9" s="21" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="21" customFormat="1" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="18">
         <v>15</v>
       </c>
@@ -2398,7 +2468,7 @@
       </c>
       <c r="I18" s="19"/>
     </row>
-    <row r="19" spans="1:9" s="21" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>16</v>
       </c>
@@ -2425,7 +2495,7 @@
       </c>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="21" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>17</v>
       </c>
@@ -2452,22 +2522,22 @@
       </c>
       <c r="I20" s="19"/>
     </row>
-    <row r="21" spans="1:9" s="21" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
+    <row r="21" spans="1:9" s="21" customFormat="1" ht="19.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="33"/>
-    </row>
-    <row r="22" spans="1:9" s="21" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>18</v>
       </c>
@@ -2494,7 +2564,7 @@
       </c>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" s="21" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>19</v>
       </c>
@@ -2519,7 +2589,7 @@
       </c>
       <c r="I23" s="19"/>
     </row>
-    <row r="24" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>20</v>
       </c>
@@ -2546,7 +2616,7 @@
       </c>
       <c r="I24" s="19"/>
     </row>
-    <row r="25" spans="1:9" s="21" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" s="21" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="18">
         <v>21</v>
       </c>
@@ -2573,7 +2643,7 @@
       </c>
       <c r="I25" s="19"/>
     </row>
-    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -2584,7 +2654,7 @@
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
@@ -2595,7 +2665,7 @@
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
     </row>
-    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
@@ -2606,7 +2676,7 @@
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
@@ -2617,7 +2687,7 @@
       <c r="H29" s="22"/>
       <c r="I29" s="22"/>
     </row>
-    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="22"/>
       <c r="C30" s="22"/>
@@ -2628,7 +2698,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
@@ -2639,7 +2709,7 @@
       <c r="H31" s="22"/>
       <c r="I31" s="22"/>
     </row>
-    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="22"/>
       <c r="C32" s="22"/>
@@ -2650,7 +2720,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2661,7 +2731,7 @@
       <c r="H33" s="22"/>
       <c r="I33" s="22"/>
     </row>
-    <row r="34" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="22"/>
       <c r="C34" s="22"/>
@@ -2672,7 +2742,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
@@ -2683,7 +2753,7 @@
       <c r="H35" s="22"/>
       <c r="I35" s="22"/>
     </row>
-    <row r="36" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="22"/>
       <c r="C36" s="22"/>
@@ -2694,7 +2764,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="22"/>
       <c r="C37" s="22"/>
@@ -2705,7 +2775,7 @@
       <c r="H37" s="22"/>
       <c r="I37" s="22"/>
     </row>
-    <row r="38" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2716,7 +2786,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="22"/>
     </row>
-    <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="22"/>
       <c r="C39" s="22"/>
@@ -2727,7 +2797,7 @@
       <c r="H39" s="22"/>
       <c r="I39" s="22"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="24"/>
       <c r="B40" s="25"/>
       <c r="C40" s="25"/>
@@ -2738,7 +2808,7 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="24"/>
       <c r="B41" s="25"/>
       <c r="C41" s="25"/>
@@ -2749,7 +2819,7 @@
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="24"/>
       <c r="B42" s="25"/>
       <c r="C42" s="25"/>
@@ -2773,27 +2843,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2825,7 +2895,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="26">
         <v>1</v>
       </c>
@@ -2856,7 +2926,7 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>2</v>
       </c>
@@ -2882,7 +2952,7 @@
       <c r="I3" s="27"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>3</v>
       </c>
@@ -2908,21 +2978,21 @@
       <c r="I4" s="27"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="26">
         <v>4</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="D5" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="E5" s="27" t="s">
         <v>179</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>180</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>101</v>
@@ -2934,21 +3004,21 @@
       <c r="I5" s="27"/>
       <c r="J5" s="30"/>
     </row>
-    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="26">
         <v>5</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>183</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>101</v>
@@ -2960,24 +3030,24 @@
       <c r="I6" s="27"/>
       <c r="J6" s="30"/>
     </row>
-    <row r="7" spans="1:16" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+    <row r="7" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>6</v>
       </c>
       <c r="B7" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="27" t="s">
+      <c r="E7" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>187</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>188</v>
       </c>
       <c r="G7" s="27" t="s">
         <v>96</v>
@@ -2985,27 +3055,27 @@
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
       <c r="J7" s="30" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>7</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="D8" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="E8" s="27" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="F8" s="27" t="s">
         <v>193</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>194</v>
       </c>
       <c r="G8" s="27" t="s">
         <v>14</v>
@@ -3014,24 +3084,24 @@
       <c r="I8" s="27"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="28">
+    <row r="9" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
         <v>8</v>
       </c>
       <c r="B9" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="F9" s="27" t="s">
         <v>198</v>
-      </c>
-      <c r="F9" s="27" t="s">
-        <v>199</v>
       </c>
       <c r="G9" s="27" t="s">
         <v>96</v>
@@ -3039,117 +3109,129 @@
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
       <c r="J9" s="30" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
         <v>9</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>202</v>
-      </c>
-      <c r="D10" s="27"/>
+        <v>249</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>250</v>
+      </c>
       <c r="E10" s="27" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
-      <c r="J10" s="30"/>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="30"/>
-    </row>
-    <row r="12" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="J10" s="32"/>
+    </row>
+    <row r="11" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="32"/>
+    </row>
+    <row r="12" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
-      <c r="J12" s="30"/>
-    </row>
-    <row r="13" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="J12" s="32"/>
+    </row>
+    <row r="13" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
-      <c r="J13" s="30"/>
-    </row>
-    <row r="14" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+      <c r="J13" s="32"/>
+    </row>
+    <row r="14" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>214</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D14" s="27"/>
       <c r="E14" s="27" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
       <c r="G14" s="27" t="s">
         <v>14</v>
@@ -3158,47 +3240,35 @@
       <c r="I14" s="27"/>
       <c r="J14" s="30"/>
     </row>
-    <row r="15" spans="1:16" ht="90" x14ac:dyDescent="0.25">
-      <c r="A15" s="26">
-        <v>13</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="30"/>
     </row>
-    <row r="16" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="26">
         <v>14</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>101</v>
@@ -3210,24 +3280,24 @@
       <c r="I16" s="27"/>
       <c r="J16" s="30"/>
     </row>
-    <row r="17" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="26">
         <v>15</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>14</v>
@@ -3236,24 +3306,24 @@
       <c r="I17" s="27"/>
       <c r="J17" s="30"/>
     </row>
-    <row r="18" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="26">
         <v>16</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="G18" s="27" t="s">
         <v>14</v>
@@ -3262,38 +3332,50 @@
       <c r="I18" s="27"/>
       <c r="J18" s="30"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-    </row>
-    <row r="20" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="26">
+        <v>17</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>234</v>
+        <v>101</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>14</v>
@@ -3302,65 +3384,101 @@
       <c r="I20" s="27"/>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <v>17</v>
-      </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+    <row r="21" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
+        <v>19</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>18</v>
-      </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+    <row r="22" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
+        <v>20</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>19</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="30"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>20</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="26">
+        <v>21</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>232</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>14</v>
+      </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="30"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="30">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
@@ -3372,10 +3490,66 @@
       <c r="I25" s="27"/>
       <c r="J25" s="30"/>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="30">
+        <v>23</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="30"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="30">
+        <v>24</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="30"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="30">
+        <v>25</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
+        <v>26</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3390,9 +3564,9 @@
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3612,15 +3786,8 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A44003BB-794C-4304-B3AC-C854D3CC3F88}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="dcc1e875-6396-4c7a-abb6-a5f631e4ec10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
